--- a/biology/Zoologie/Frégate_ariel/Frégate_ariel.xlsx
+++ b/biology/Zoologie/Frégate_ariel/Frégate_ariel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_ariel</t>
+          <t>Frégate_ariel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fregata ariel
-La Frégate ariel (Fregata ariel) est une espèce d'oiseaux marins appartenant à la famille des Fregatidae[1].
+La Frégate ariel (Fregata ariel) est une espèce d'oiseaux marins appartenant à la famille des Fregatidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_ariel</t>
+          <t>Frégate_ariel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau atteint 81 cm et une envergure de 175 à 193 cm pour un poids de 625 à 955 gr[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau atteint 81 cm et une envergure de 175 à 193 cm pour un poids de 625 à 955 gr.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9gate_ariel</t>
+          <t>Frégate_ariel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant la saison de reproduction cet oiseau se rencontre principalement dans les eaux tropicales de l'océan Indien et Pacifique, ainsi que dans le sud de l'océan Atlantique. En de cette période il est sédendaire, les populations réparties sur toutes les mers trocipales, en particulier dans l'océan Indien et Pacifique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la saison de reproduction cet oiseau se rencontre principalement dans les eaux tropicales de l'océan Indien et Pacifique, ainsi que dans le sud de l'océan Atlantique. En de cette période il est sédendaire, les populations réparties sur toutes les mers trocipales, en particulier dans l'océan Indien et Pacifique.
 </t>
         </is>
       </c>
